--- a/test/dataload/mock_mapping.xlsx
+++ b/test/dataload/mock_mapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">Title 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title 5</t>
   </si>
 </sst>
 </file>
@@ -311,7 +314,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
@@ -319,8 +322,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="113.795918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.1581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="112.581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -396,8 +401,24 @@
       <c r="B9" s="4"/>
       <c r="C9" s="6"/>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A5:A6"/>
@@ -405,6 +426,9 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
